--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programing\Книги\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dzzirt\Documents\Game-and-Book-exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>Название и дата</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>НЕ ГОТОВО</t>
+  </si>
+  <si>
+    <t>Загрузка игровой карты из файла</t>
   </si>
 </sst>
 </file>
@@ -905,52 +908,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1245,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1265,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1339,10 +1342,10 @@
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1377,10 +1380,10 @@
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1412,13 +1415,13 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -1450,11 +1453,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="38" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -1484,11 +1487,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="38" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -1514,14 +1517,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="E8" s="19" t="s">
         <v>68</v>
       </c>
@@ -1540,11 +1545,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="38" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="19"/>
@@ -1566,9 +1571,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40" t="s">
+        <v>121</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
         <v>117</v>
@@ -1617,11 +1624,11 @@
       <c r="A13" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -1641,11 +1648,11 @@
       <c r="A14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="49" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="42" t="s">
         <v>120</v>
       </c>
       <c r="E14" s="28" t="s">
@@ -1665,10 +1672,10 @@
       <c r="A15" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="24"/>
       <c r="E15" s="28" t="s">
         <v>89</v>
@@ -1687,10 +1694,10 @@
       <c r="A16" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -1705,10 +1712,10 @@
       <c r="A17" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -1723,10 +1730,10 @@
       <c r="A18" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -1741,10 +1748,10 @@
       <c r="A19" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -1758,10 +1765,10 @@
       <c r="A20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -1776,10 +1783,10 @@
       <c r="A21" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -1794,10 +1801,10 @@
       <c r="A22" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -1812,10 +1819,10 @@
       <c r="A23" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -1830,10 +1837,10 @@
       <c r="A24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -1848,10 +1855,10 @@
       <c r="A25" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -1866,10 +1873,10 @@
       <c r="A26" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -1884,10 +1891,10 @@
       <c r="A27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -1902,10 +1909,10 @@
       <c r="A28" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="49"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -1917,12 +1924,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -1935,6 +1936,12 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="7" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dzzirt\Documents\Game-and-Book-exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programing\Книги\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Название и дата</t>
   </si>
@@ -474,7 +474,10 @@
     <t>НЕ ГОТОВО</t>
   </si>
   <si>
-    <t>Загрузка игровой карты из файла</t>
+    <t>Карта загружается из файла</t>
+  </si>
+  <si>
+    <t>Монстры преследуют персонажа</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +607,20 @@
       <family val="4"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -807,7 +824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -830,9 +847,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,12 +854,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,9 +943,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -947,14 +964,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1244,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,13 +1365,13 @@
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1380,37 +1403,37 @@
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1418,512 +1441,518 @@
       <c r="A5" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="17" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="21"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="46"/>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="28" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="C28" s="40"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -1936,12 +1965,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="7" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Название и дата</t>
   </si>
@@ -44,21 +44,9 @@
     <t>FtSoU - «1 уровень игры»</t>
   </si>
   <si>
-    <t>FtSoU - "Бонусы и статистика"</t>
-  </si>
-  <si>
-    <t>FtSoU - "Поиск текстур"</t>
-  </si>
-  <si>
-    <t>FtSoU - "Размышление над анимацией"</t>
-  </si>
-  <si>
     <t>FtSoU - "Подбор музыки"</t>
   </si>
   <si>
-    <t>FtSoU - «Добавление графики и звука»</t>
-  </si>
-  <si>
     <t>FtSoU - «Дополнительные окна»</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>1 уровень игры</t>
   </si>
   <si>
-    <t>Бонусы и статистика</t>
-  </si>
-  <si>
     <t>Текстурирование обьектов</t>
   </si>
   <si>
@@ -90,12 +75,6 @@
   </si>
   <si>
     <t>Аудио</t>
-  </si>
-  <si>
-    <t>Графика и Аудио</t>
-  </si>
-  <si>
-    <t>Гл. меню и его составляющие</t>
   </si>
   <si>
     <t>Как выглядит:</t>
@@ -113,9 +92,6 @@
     <t>Полноценный уровень игры. Достижение цели - пройти весь уровень</t>
   </si>
   <si>
-    <t>Из монстров и сундуков падают вещи, которые персонаж может собирать. 3 предмета влияющих на игровой процесс</t>
-  </si>
-  <si>
     <t>Игровые объекты будут текстурированы</t>
   </si>
   <si>
@@ -125,12 +101,6 @@
     <t>В игре появиться звук</t>
   </si>
   <si>
-    <t>Игра пробразится! Каждый объект игры  в т.ч и персонаж обзаведутся своими собственными текстурками! В игре появиться звук! А живые персонаж и монстры будут иметь свою анимацию бега и атаки!</t>
-  </si>
-  <si>
-    <t>Добавляем  главное меню в виде списка из подменю, с красивым фоном в стилистике игры</t>
-  </si>
-  <si>
     <t>Кузин Никита ПС-21</t>
   </si>
   <si>
@@ -146,22 +116,10 @@
     <t>У игрока есть возможность уклониться, пока не завершена анимация атаки монстра</t>
   </si>
   <si>
-    <t>Подбирая бонус игрок получает бафы или дебафы</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ищем текстуры персонажу, монстрам, картам и т.д</t>
   </si>
   <si>
     <t xml:space="preserve">Придумываю анимацию атаки, передвижения, существ, персонажа, и окружения </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ищу звуковое сопровождение, звуки ударов, ходьбы, окружения</t>
-  </si>
-  <si>
-    <t>Заливаем текстуры персонажу, монстрам, картам и т.д</t>
-  </si>
-  <si>
-    <t>Создаем главное меню с тематическим фоном</t>
   </si>
   <si>
     <t>Передвижение с помощью клавиш W, A ,S, D</t>
@@ -177,22 +135,9 @@
     <t>Игрок и моснтр умирают если у них кончаются жизни</t>
   </si>
   <si>
-    <t>Бафы и дефафы бывают постоянные и временные</t>
-  </si>
-  <si>
     <t>Ищу текстуры в сети, если не нахожу пытаюсь начучитсья сам рисовать</t>
   </si>
   <si>
-    <t>Звук будет по разному слышен в зависимости от источника звука</t>
-  </si>
-  <si>
-    <t>Анимируем атаку, передвижение, существ и персонажа</t>
-  </si>
-  <si>
-    <t>Добавляем небольшое подменю настройки
-(громкость звука)</t>
-  </si>
-  <si>
     <t>Добавить камеру</t>
   </si>
   <si>
@@ -205,15 +150,6 @@
     <t>У персонажа и у монстра есть жизни,которые отнимаются при получении удара</t>
   </si>
   <si>
-    <t>Пивафви - плащ дроу дающий временную невидимость</t>
-  </si>
-  <si>
-    <t>Добавляем звуковое сопровождение, звуки ударов, ходьбы, окружения</t>
-  </si>
-  <si>
-    <t>Добавляем таблицу рекордов</t>
-  </si>
-  <si>
     <t>Привязать камеру к персонажу (где персонаж по центру)</t>
   </si>
   <si>
@@ -223,21 +159,12 @@
     <t>Смерть монстра, он пока просто пропадет</t>
   </si>
   <si>
-    <t>Ножные браслеты - придающие герою невероятную скорость атаки и передвижения</t>
-  </si>
-  <si>
-    <t>Создаем кнопку старта игры</t>
-  </si>
-  <si>
     <t>Обработка клавиатуры</t>
   </si>
   <si>
     <t>Смерть персонажа (пока конец программы)</t>
   </si>
   <si>
-    <t>Реализуем вывод результата после конца игры</t>
-  </si>
-  <si>
     <t>Объекты</t>
   </si>
   <si>
@@ -247,9 +174,6 @@
     <t>Цель</t>
   </si>
   <si>
-    <t>Зачем</t>
-  </si>
-  <si>
     <t>Динамические</t>
   </si>
   <si>
@@ -259,18 +183,12 @@
     <t>Занять время</t>
   </si>
   <si>
-    <t>Отвлечься от реала</t>
-  </si>
-  <si>
     <t>Персонаж</t>
   </si>
   <si>
     <t>Может ходить, атаковать, собирать. Цель: уничтожить все что движется</t>
   </si>
   <si>
-    <t>Поднять настроение и получить удовольствие</t>
-  </si>
-  <si>
     <t>Платформа</t>
   </si>
   <si>
@@ -280,31 +198,10 @@
     <t>Статические</t>
   </si>
   <si>
-    <t>Ловушки, лут, сундуки, основные элементы сцены</t>
-  </si>
-  <si>
-    <t>Вазы, ящики</t>
-  </si>
-  <si>
-    <t>Их можно ломать \ разбивать, возможно внутри сокровища</t>
-  </si>
-  <si>
     <t>Ловушки</t>
   </si>
   <si>
     <t>Наступил и получил дамага</t>
-  </si>
-  <si>
-    <t>Сундуки</t>
-  </si>
-  <si>
-    <t>Основной источник лута и бонусов</t>
-  </si>
-  <si>
-    <t>Лут, лежащий на земле</t>
-  </si>
-  <si>
-    <t>Своя текстурка, можно поднять</t>
   </si>
   <si>
     <t>Бонус</t>
@@ -419,6 +316,63 @@
   <si>
     <t>Бонусы скорости и атаки</t>
   </si>
+  <si>
+    <t>Текстурирую  игровые объекты</t>
+  </si>
+  <si>
+    <t>Анимирую врагов и персонажа</t>
+  </si>
+  <si>
+    <t>FtSoU - "Текстурирование"</t>
+  </si>
+  <si>
+    <t>FtSoU - "Анимирование"</t>
+  </si>
+  <si>
+    <t>Противники передвигаются асинхронно</t>
+  </si>
+  <si>
+    <t>Бонусы теперь временные</t>
+  </si>
+  <si>
+    <t>"Краснение" персонажа и врага при получении урона</t>
+  </si>
+  <si>
+    <t>Появился инвентарь в который кладуться бонусы при поднятии</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>На игровом экране панель на 3 ячейки в которые кладуться бонусы</t>
+  </si>
+  <si>
+    <t>Добавляю звуковое сопровождение игре</t>
+  </si>
+  <si>
+    <t>Звуки атаки, получения урона, прыжка, получения бонуса</t>
+  </si>
+  <si>
+    <t>Механизмы-ловушки и экраны</t>
+  </si>
+  <si>
+    <t>Несколько новых игровых карт</t>
+  </si>
+  <si>
+    <t>3 основных игровых экрана, раскачивающаяся кувалда</t>
+  </si>
+  <si>
+    <t>Главное меню</t>
+  </si>
+  <si>
+    <t>Сама игровая сцена</t>
+  </si>
+  <si>
+    <t>Посмертный экран</t>
+  </si>
+  <si>
+    <t>Ловушки, бонусы</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +382,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;.&quot;mm&quot;.&quot;yy"/>
     <numFmt numFmtId="165" formatCode="dd&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +484,23 @@
       <family val="4"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,12 +517,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -739,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -750,43 +713,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,110 +758,89 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,20 +1140,18 @@
     <col min="2" max="2" width="68.5703125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="67.5703125" customWidth="1"/>
-    <col min="5" max="5" width="99" customWidth="1"/>
-    <col min="6" max="6" width="68.7109375" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" customWidth="1"/>
-    <col min="9" max="9" width="72.140625" customWidth="1"/>
-    <col min="10" max="10" width="66.140625" customWidth="1"/>
-    <col min="11" max="11" width="62.85546875" customWidth="1"/>
+    <col min="5" max="6" width="99" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="9" max="10" width="72.140625" customWidth="1"/>
+    <col min="11" max="11" width="66.140625" customWidth="1"/>
     <col min="12" max="12" width="59.7109375" customWidth="1"/>
     <col min="13" max="13" width="88.140625" customWidth="1"/>
     <col min="14" max="14" width="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
@@ -1226,33 +1166,28 @@
       <c r="E1" s="2">
         <v>42303</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>101</v>
+      <c r="F1" s="8">
+        <v>42321</v>
       </c>
       <c r="G1" s="8">
+        <v>42324</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="8">
         <v>42339</v>
       </c>
-      <c r="H1" s="8">
-        <v>42345</v>
-      </c>
-      <c r="I1" s="8">
-        <v>42321</v>
-      </c>
-      <c r="J1" s="8">
-        <v>42324</v>
-      </c>
+      <c r="J1" s="8"/>
       <c r="K1" s="8">
         <v>42331</v>
       </c>
-      <c r="L1" s="8">
-        <v>42338</v>
-      </c>
-      <c r="M1" s="2">
+      <c r="L1" s="2">
         <v>42345</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1266,293 +1201,272 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="J3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>23</v>
+      <c r="L3" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="F5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="G5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="H5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="E7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="F7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="27" t="s">
+      <c r="C9" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
-        <v>68</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="7"/>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="31"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1587,24 +1501,22 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48" t="s">
-        <v>72</v>
-      </c>
+      <c r="A13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1613,24 +1525,22 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52" t="s">
-        <v>76</v>
-      </c>
+      <c r="A14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1639,22 +1549,20 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52" t="s">
+      <c r="A15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31" t="s">
         <v>79</v>
       </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1663,13 +1571,13 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="42"/>
+      <c r="A16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="35"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1683,9 +1591,9 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1699,9 +1607,9 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1715,9 +1623,9 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1730,9 +1638,9 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1746,9 +1654,9 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1762,13 +1670,13 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="44"/>
+      <c r="A22" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1782,13 +1690,13 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="38"/>
+      <c r="A23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="36"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1802,13 +1710,13 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="40"/>
+      <c r="A24" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="35"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1822,13 +1730,13 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="42"/>
+      <c r="A25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="34"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1841,14 +1749,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="42"/>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1861,14 +1762,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="42"/>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1881,14 +1775,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="44"/>
+    <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1901,8 +1788,14 @@
       <c r="N28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="15">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -1911,20 +1804,10 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToWidth="7" fitToHeight="2" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="2" manualBreakCount="2">
-    <brk id="10" max="1048575" man="1"/>
+  <colBreaks count="1" manualBreakCount="1">
     <brk id="12" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
